--- a/Project/王锦阳/1-50条测试用例/探索性测试.xlsx
+++ b/Project/王锦阳/1-50条测试用例/探索性测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProjectFile\18-training\Project\王锦阳\1-50条测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF484D-E1D7-4E30-BAF8-4BDD6D4E3B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7BBCD-322F-4485-8887-950A84BEE3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="172">
   <si>
     <r>
       <t>项目</t>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试剑鱼论坛功能是否能够正常运行以及是否存在缺陷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
   </si>
   <si>
@@ -398,6 +394,345 @@
   </si>
   <si>
     <t>点击查看如何获取积分，查看，重复操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线、下划线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线、下划线、调整字体大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线、下划线、调整字体大小、改变字体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线、下划线、调整字体大小、改变字体、改变内容颜色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线、下划线、调整字体大小、改变字体、改变内容颜色、改变背景颜色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，插入步骤：加粗、斜线、删除线、下划线、调整字体大小、改变字体、改变内容颜色、改变背景颜色、撤回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，替换环境：使用火狐浏览器打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，替换环境：使用谷歌浏览器打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，替换环境：使用IE浏览器打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，替换环境：使用QQ浏览器打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，替换环境：IOS系统打开环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合探索式测试，替换环境：更换Apache版本打开环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏测试法：关闭Apache环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏测试法：关闭MySql环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛发新帖填入必填项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开火狐浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入网址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常打开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开谷歌浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开QQ浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开IE浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用IOS系统打开浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开火狐浏览器，关闭Apache环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开火狐浏览器，更换Apache环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开火狐浏览器，关闭MySQL环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线、删除线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线、删除线、下划线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线、删除线、下划线、调整字体大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线、删除线、下划线、调整字体大小、调整字体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线、删除线、下划线、调整字体大小、调整字体、改变内容颜色</t>
+  </si>
+  <si>
+    <t>输入内容，加粗、斜线、删除线、下划线、调整字体大小、调整字体、改变内容颜色、改变背景颜色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线、删除线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线、删除线、下划线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线、删除线、下划线、字体大小改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线、删除线、下划线、字体大小改变、字体改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线、删除线、下划线、字体大小改变、字体改变、内容颜色改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加粗、斜线、删除线、下划线、字体大小改变、字体改变、内容颜色改变、背景颜色改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回，内容加粗、斜线、删除线、下划线、字体大小改变、字体改变、内容颜色改变、背景颜色不改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试剑鱼论坛发帖是否能够正常运行以及是否存在缺陷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地标测试法：查看发帖区各项功能间跳转是否正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛，进入发帖区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击发新帖，点击我的主贴，点击回收桶，点击我的跟帖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强迫症测试法：多次点赞是否可以</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛选择帖子点赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次点赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能赞一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质疑测试法：点赞之后能否取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击取消点赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质疑测试法：收藏之后能否取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛选择帖子收藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击取消收藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消测试法：删除主贴操作取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛选择帖子删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消测试法：删除跟帖操作取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛选择跟帖删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消测试法：彻底删除回收桶帖子操作取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消测试法：还原回收桶帖子操作取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛回收桶选择帖子彻底删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底删除取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛回收桶选择帖子还原</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖点测试法：进行跟帖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖点测试发：进行点赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖点测试发：进行收藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开剑鱼论坛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行跟帖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟帖成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行点赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行收藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞成功</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -538,18 +873,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -559,13 +882,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -867,791 +1202,1019 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>45</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>31</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>32</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>33</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>34</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>35</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>36</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>37</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>38</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>39</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>40</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>41</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>42</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>44</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>45</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>46</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>47</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>48</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>49</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>50</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
